--- a/zad2.xlsx
+++ b/zad2.xlsx
@@ -14,9 +14,12 @@
   <sheets>
     <sheet name="zad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="zad1" localSheetId="0">zad1!$A$1:$A$100</definedName>
-    <definedName name="zad1b" localSheetId="0">zad1!$B$1:$B$302</definedName>
+    <definedName name="zad1b" localSheetId="0">zad1!$B$1:$B$202</definedName>
     <definedName name="zad1b_2" localSheetId="0">zad1!$B$1:$B$201</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -242,304 +245,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>28.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>24.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>27.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>28.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>31.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>32.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>33.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>34.0</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>35.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>36.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>37.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>39.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>38.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>41.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>44.0</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>46.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>47.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>48.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>49.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>48.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>47.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>46.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>44.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>45.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>48.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49.0</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>50.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>47.0</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>46.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,11 +558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1008141248"/>
-        <c:axId val="2094867648"/>
+        <c:axId val="-2146034400"/>
+        <c:axId val="-2146031312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1008141248"/>
+        <c:axId val="-2146034400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094867648"/>
+        <c:crossAx val="-2146031312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094867648"/>
+        <c:axId val="-2146031312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1008141248"/>
+        <c:crossAx val="-2146034400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,10 +1421,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>zad1!$B$1:$B$200</c:f>
+              <c:f>zad1!$B$1:$B$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1495,7 +1498,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.0</c:v>
@@ -1507,7 +1510,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.0</c:v>
@@ -1519,31 +1522,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.0</c:v>
@@ -1555,31 +1558,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.0</c:v>
@@ -1591,73 +1594,73 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>37.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>30.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>53.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>85.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>105.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>124.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>127.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>145.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>175.0</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>213.0</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>241.0</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.0</c:v>
@@ -1669,217 +1672,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>257.0</c:v>
+                  <c:v>291.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305.0</c:v>
+                  <c:v>310.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>311.0</c:v>
+                  <c:v>338.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>347.0</c:v>
+                  <c:v>325.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>371.0</c:v>
+                  <c:v>373.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>390.0</c:v>
+                  <c:v>349.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>397.0</c:v>
+                  <c:v>373.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>369.0</c:v>
+                  <c:v>437.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>380.0</c:v>
+                  <c:v>428.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>384.0</c:v>
+                  <c:v>408.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>387.0</c:v>
+                  <c:v>379.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>374.0</c:v>
+                  <c:v>364.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>363.0</c:v>
+                  <c:v>382.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>346.0</c:v>
+                  <c:v>348.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>368.0</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>306.0</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>284.0</c:v>
+                  <c:v>292.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>250.0</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>252.0</c:v>
+                  <c:v>259.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>234.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>184.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>193.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>150.0</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>116.0</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>109.0</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>104.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>87.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>60.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>60.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>50.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>36.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>31.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>22.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>15.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>12.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>0.0</c:v>
@@ -1891,13 +1894,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0.0</c:v>
@@ -1921,7 +1924,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>0.0</c:v>
@@ -1939,7 +1942,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>0.0</c:v>
@@ -1951,7 +1954,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>0.0</c:v>
@@ -2020,6 +2023,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2036,11 +2042,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-987009632"/>
-        <c:axId val="-2058140016"/>
+        <c:axId val="-2147478592"/>
+        <c:axId val="-2147460480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-987009632"/>
+        <c:axId val="-2147478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058140016"/>
+        <c:crossAx val="-2147460480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2091,9 +2097,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058140016"/>
+        <c:axId val="-2147460480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2142,7 +2149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-987009632"/>
+        <c:crossAx val="-2147478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2215,6 +2222,727 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rozkład</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> ostatnich położeń 10 tyś. wędrowniczków</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]zad1!$B$1:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>735.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>813.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>831.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2118646320"/>
+        <c:axId val="-2118643536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2118646320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118643536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2118643536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118646320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3384,7 +4112,1058 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="zad1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>86</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>104</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>205</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>257</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>396</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>464</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>588</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>644</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>735</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>813</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>829</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>831</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>743</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>664</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>566</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>489</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>358</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>266</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>229</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>159</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>116</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3392,11 +5171,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1b" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1b" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3662,15 +5441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
@@ -3678,7 +5457,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3689,7 +5468,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3700,7 +5479,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3714,7 +5493,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3726,7 +5505,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3735,13 +5514,13 @@
         <v>-96</v>
       </c>
       <c r="O5" s="1">
-        <f>STDEVP(B1:B200)</f>
-        <v>107.22289867374413</v>
+        <f>STDEVP(B1:B201)</f>
+        <v>108.06427887650838</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3752,7 +5531,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3763,7 +5542,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3774,7 +5553,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3785,7 +5564,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3796,7 +5575,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3807,7 +5586,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3818,7 +5597,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3829,7 +5608,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3840,7 +5619,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3851,7 +5630,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3862,7 +5641,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3873,7 +5652,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3884,7 +5663,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3895,7 +5674,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3906,7 +5685,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3917,7 +5696,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3928,7 +5707,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3939,7 +5718,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3950,10 +5729,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>-76</v>
@@ -3961,7 +5740,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3972,7 +5751,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3983,7 +5762,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3994,10 +5773,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>-72</v>
@@ -4005,7 +5784,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16</v>
+        <v>-6</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4016,7 +5795,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4027,7 +5806,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>18</v>
+        <v>-6</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4038,10 +5817,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>19</v>
+        <v>-5</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>-68</v>
@@ -4049,7 +5828,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>18</v>
+        <v>-4</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4060,10 +5839,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>-66</v>
@@ -4071,7 +5850,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>18</v>
+        <v>-4</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4082,10 +5861,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>19</v>
+        <v>-5</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>-64</v>
@@ -4093,7 +5872,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4104,10 +5883,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>-62</v>
@@ -4115,7 +5894,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4126,10 +5905,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>-60</v>
@@ -4137,7 +5916,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4148,7 +5927,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -4159,7 +5938,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>26</v>
+        <v>-4</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4170,10 +5949,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>27</v>
+        <v>-5</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>-56</v>
@@ -4181,7 +5960,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4192,10 +5971,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>-54</v>
@@ -4203,7 +5982,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4214,10 +5993,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>27</v>
+        <v>-5</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>-52</v>
@@ -4225,7 +6004,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>26</v>
+        <v>-6</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4236,10 +6015,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>-50</v>
@@ -4247,7 +6026,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4258,10 +6037,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>-48</v>
@@ -4269,7 +6048,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>26</v>
+        <v>-4</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4280,7 +6059,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>27</v>
+        <v>-5</v>
       </c>
       <c r="B55">
         <v>25</v>
@@ -4291,7 +6070,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4302,10 +6081,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="B57">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>-44</v>
@@ -4313,7 +6092,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>30</v>
+        <v>-4</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4324,10 +6103,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>31</v>
+        <v>-5</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C59">
         <v>-42</v>
@@ -4335,7 +6114,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>30</v>
+        <v>-4</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4346,10 +6125,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>31</v>
+        <v>-5</v>
       </c>
       <c r="B61">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C61">
         <v>-40</v>
@@ -4357,7 +6136,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>32</v>
+        <v>-6</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4368,10 +6147,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>33</v>
+        <v>-5</v>
       </c>
       <c r="B63">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C63">
         <v>-38</v>
@@ -4379,7 +6158,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>34</v>
+        <v>-6</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4390,10 +6169,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>35</v>
+        <v>-5</v>
       </c>
       <c r="B65">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65">
         <v>-36</v>
@@ -4401,7 +6180,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>36</v>
+        <v>-4</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4412,10 +6191,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>37</v>
+        <v>-5</v>
       </c>
       <c r="B67">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>-34</v>
@@ -4423,7 +6202,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>38</v>
+        <v>-4</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4434,10 +6213,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>39</v>
+        <v>-3</v>
       </c>
       <c r="B69">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C69">
         <v>-32</v>
@@ -4445,7 +6224,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>38</v>
+        <v>-2</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4456,10 +6235,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>39</v>
+        <v>-3</v>
       </c>
       <c r="B71">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C71">
         <v>-30</v>
@@ -4467,7 +6246,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>40</v>
+        <v>-2</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4478,10 +6257,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>41</v>
+        <v>-3</v>
       </c>
       <c r="B73">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C73">
         <v>-28</v>
@@ -4489,7 +6268,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>42</v>
+        <v>-2</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4500,10 +6279,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>43</v>
+        <v>-3</v>
       </c>
       <c r="B75">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>-26</v>
@@ -4511,7 +6290,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>44</v>
+        <v>-4</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4522,10 +6301,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>45</v>
+        <v>-3</v>
       </c>
       <c r="B77">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C77">
         <v>-24</v>
@@ -4533,7 +6312,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>46</v>
+        <v>-2</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4544,10 +6323,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>47</v>
+        <v>-3</v>
       </c>
       <c r="B79">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C79">
         <v>-22</v>
@@ -4555,7 +6334,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>48</v>
+        <v>-2</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4566,7 +6345,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>49</v>
+        <v>-3</v>
       </c>
       <c r="B81">
         <v>253</v>
@@ -4577,7 +6356,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>48</v>
+        <v>-2</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4588,10 +6367,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="B83">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="C83">
         <v>-18</v>
@@ -4599,7 +6378,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>46</v>
+        <v>-2</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4610,10 +6389,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="B85">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C85">
         <v>-16</v>
@@ -4621,7 +6400,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4632,10 +6411,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="B87">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C87">
         <v>-14</v>
@@ -4643,7 +6422,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4654,10 +6433,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="B89">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C89">
         <v>-12</v>
@@ -4665,7 +6444,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4676,10 +6455,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>45</v>
+        <v>-3</v>
       </c>
       <c r="B91">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C91">
         <v>-10</v>
@@ -4687,7 +6466,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>46</v>
+        <v>-2</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4698,10 +6477,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>47</v>
+        <v>-3</v>
       </c>
       <c r="B93">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C93">
         <v>-8</v>
@@ -4709,7 +6488,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>48</v>
+        <v>-2</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4720,10 +6499,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>49</v>
+        <v>-3</v>
       </c>
       <c r="B95">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="C95">
         <v>-6</v>
@@ -4731,7 +6510,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>50</v>
+        <v>-2</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4742,10 +6521,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>49</v>
+        <v>-1</v>
       </c>
       <c r="B97">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C97">
         <v>-4</v>
@@ -4753,7 +6532,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4764,10 +6543,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="B99">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="C99">
         <v>-2</v>
@@ -4775,7 +6554,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4786,7 +6565,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4802,7 +6581,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -4818,7 +6597,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -4834,7 +6613,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B107">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -4850,7 +6629,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -4866,7 +6645,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C111">
         <v>10</v>
@@ -4882,7 +6661,7 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -4898,7 +6677,7 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C115">
         <v>14</v>
@@ -4914,7 +6693,7 @@
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -4930,7 +6709,7 @@
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C119">
         <v>18</v>
@@ -4946,7 +6725,7 @@
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C121">
         <v>20</v>
@@ -4962,7 +6741,7 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C123">
         <v>22</v>
@@ -4978,7 +6757,7 @@
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C125">
         <v>24</v>
@@ -4994,7 +6773,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C127">
         <v>26</v>
@@ -5010,7 +6789,7 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C129">
         <v>28</v>
@@ -5026,7 +6805,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C131">
         <v>30</v>
@@ -5042,7 +6821,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C133">
         <v>32</v>
@@ -5058,7 +6837,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C135">
         <v>34</v>
@@ -5074,7 +6853,7 @@
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C137">
         <v>36</v>
@@ -5090,7 +6869,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C139">
         <v>38</v>
@@ -5106,7 +6885,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C141">
         <v>40</v>
@@ -5122,7 +6901,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C143">
         <v>42</v>
@@ -5138,7 +6917,7 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145">
         <v>44</v>
@@ -5154,7 +6933,7 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C147">
         <v>46</v>
@@ -5170,7 +6949,7 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C149">
         <v>48</v>
@@ -5186,7 +6965,7 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C151">
         <v>50</v>
@@ -5202,7 +6981,7 @@
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C153">
         <v>52</v>
@@ -5234,7 +7013,7 @@
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>56</v>
@@ -5250,7 +7029,7 @@
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>58</v>
@@ -5314,7 +7093,7 @@
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>66</v>
@@ -5362,7 +7141,7 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>72</v>
@@ -5394,7 +7173,7 @@
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>76</v>
@@ -5590,6 +7369,11 @@
       </c>
       <c r="C201">
         <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
